--- a/data/management/Management_information_KIE_2015.xlsx
+++ b/data/management/Management_information_KIE_2015.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108E2D6E-64AD-2343-B3A6-1943F8288364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="34840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tabelle3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
-  <si>
-    <t xml:space="preserve">General information</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="113">
+  <si>
+    <t>General information</t>
   </si>
   <si>
     <t>Year</t>
@@ -25,10 +32,10 @@
     <t>Farm</t>
   </si>
   <si>
-    <t xml:space="preserve">Versuchsgut Hohenschulen (CAU Kiel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal code</t>
+    <t>Versuchsgut Hohenschulen (CAU Kiel)</t>
+  </si>
+  <si>
+    <t>Postal code</t>
   </si>
   <si>
     <t>24239</t>
@@ -37,124 +44,124 @@
     <t>Address</t>
   </si>
   <si>
-    <t xml:space="preserve">Hohenschulen, Achterwehr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal state</t>
+    <t>Hohenschulen, Achterwehr</t>
+  </si>
+  <si>
+    <t>Federal state</t>
   </si>
   <si>
     <t>Schleswig-Holstein</t>
   </si>
   <si>
-    <t xml:space="preserve">Weather station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hohenschulen (eigen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance from the closest weather station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 km</t>
+    <t>Weather station</t>
+  </si>
+  <si>
+    <t>Hohenschulen (eigen)</t>
+  </si>
+  <si>
+    <t>Distance from the closest weather station</t>
+  </si>
+  <si>
+    <t>0 km</t>
   </si>
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
   <si>
-    <t xml:space="preserve">Intern ID</t>
+    <t>Intern ID</t>
   </si>
   <si>
     <t>141-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Plot information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plot length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plot width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plot size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5 m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harvest size of the plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sowing density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330 K/m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sowing date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23. - 24.10.2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvest date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21. - 24.08.2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of data collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parabraunerde/ Pseudogley/ Braunerde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade of soil productivity (Ackerzahl)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 - 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil structure</t>
+    <t>Plot information</t>
+  </si>
+  <si>
+    <t>plot length</t>
+  </si>
+  <si>
+    <t>6 m</t>
+  </si>
+  <si>
+    <t>plot width</t>
+  </si>
+  <si>
+    <t>1.25 m</t>
+  </si>
+  <si>
+    <t>plot size</t>
+  </si>
+  <si>
+    <t>7.5 m2</t>
+  </si>
+  <si>
+    <t>harvest size of the plot</t>
+  </si>
+  <si>
+    <t>Sowing density</t>
+  </si>
+  <si>
+    <t>330 K/m2</t>
+  </si>
+  <si>
+    <t>Sowing date</t>
+  </si>
+  <si>
+    <t>23. - 24.10.2014</t>
+  </si>
+  <si>
+    <t>Harvest date</t>
+  </si>
+  <si>
+    <t>21. - 24.08.2015</t>
+  </si>
+  <si>
+    <t>Soil Condition</t>
+  </si>
+  <si>
+    <t>Date of data collection</t>
+  </si>
+  <si>
+    <t>Type of soil</t>
+  </si>
+  <si>
+    <t>Parabraunerde/ Pseudogley/ Braunerde</t>
+  </si>
+  <si>
+    <t>Grade of soil productivity (Ackerzahl)</t>
+  </si>
+  <si>
+    <t>45 - 60</t>
+  </si>
+  <si>
+    <t>Soil structure</t>
   </si>
   <si>
     <t>homogeneous</t>
   </si>
   <si>
-    <t xml:space="preserve">Sowing preperation (Saatbettbereitung)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grubber, Kreiselelegge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preceding crop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oilseed rape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Preceding crop</t>
+    <t>Sowing preperation (Saatbettbereitung)</t>
+  </si>
+  <si>
+    <t>Grubber, Kreiselelegge</t>
+  </si>
+  <si>
+    <t>Preceding crop</t>
+  </si>
+  <si>
+    <t>oilseed rape</t>
+  </si>
+  <si>
+    <t>Pre-Preceding crop</t>
   </si>
   <si>
     <t>winterbarley</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil cultivation before preceding crop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catch crop (Zwischenfrucht)</t>
+    <t>Soil cultivation before preceding crop</t>
+  </si>
+  <si>
+    <t>Catch crop (Zwischenfrucht)</t>
   </si>
   <si>
     <t>non</t>
@@ -172,43 +179,43 @@
     <t>pH</t>
   </si>
   <si>
-    <t xml:space="preserve">organical content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - 5 %</t>
+    <t>organical content</t>
+  </si>
+  <si>
+    <t>2 - 5 %</t>
   </si>
   <si>
     <t>P2O5</t>
   </si>
   <si>
-    <t xml:space="preserve">21 (mg/100g)</t>
+    <t>21 (mg/100g)</t>
   </si>
   <si>
     <t>K2O</t>
   </si>
   <si>
-    <t xml:space="preserve">19 (mg/100g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C/N ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil nitrogen, 0-30cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (kg/ha)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil nitrogen, 30-60cm</t>
+    <t>19 (mg/100g)</t>
+  </si>
+  <si>
+    <t>C/N ratio</t>
+  </si>
+  <si>
+    <t>Soil nitrogen, 0-30cm</t>
+  </si>
+  <si>
+    <t>16 (kg/ha)</t>
+  </si>
+  <si>
+    <t>Soil nitrogen, 30-60cm</t>
   </si>
   <si>
     <t xml:space="preserve">Soil nitrogen, 60-90cm </t>
   </si>
   <si>
-    <t xml:space="preserve">20  (kg/ha)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil nitrogen, 0-90cm</t>
+    <t>20  (kg/ha)</t>
+  </si>
+  <si>
+    <t>Soil nitrogen, 0-90cm</t>
   </si>
   <si>
     <t xml:space="preserve"> 52 (kg/ha)</t>
@@ -229,37 +236,34 @@
     <t>Fertilization</t>
   </si>
   <si>
-    <t xml:space="preserve">Date (dd.mm.YYYY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount kg/ha</t>
+    <t>Date (dd.mm.YYYY)</t>
+  </si>
+  <si>
+    <t>Amount kg/ha</t>
   </si>
   <si>
     <t>Notice</t>
   </si>
   <si>
-    <t xml:space="preserve">Plant protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount /ha</t>
+    <t>Plant protection</t>
+  </si>
+  <si>
+    <t>Amount /ha</t>
   </si>
   <si>
     <t>Infection_data</t>
   </si>
   <si>
-    <t xml:space="preserve">Measure Date (dd.mm.YYYY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low nitrogen, no fungicide (LN_NF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st nitrogen application</t>
-  </si>
-  <si>
-    <t>KAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st herbicide</t>
+    <t>Measure Date (dd.mm.YYYY)</t>
+  </si>
+  <si>
+    <t>low nitrogen, no fungicide (LN_NF)</t>
+  </si>
+  <si>
+    <t>1st nitrogen application</t>
+  </si>
+  <si>
+    <t>1st herbicide</t>
   </si>
   <si>
     <t>0.4l</t>
@@ -271,28 +275,28 @@
     <t>Stripe_rust</t>
   </si>
   <si>
-    <t xml:space="preserve">2nd nitrogen application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd herbicide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7 l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariane C</t>
+    <t>2nd nitrogen application</t>
+  </si>
+  <si>
+    <t>2nd herbicide</t>
+  </si>
+  <si>
+    <t>0.7 l</t>
+  </si>
+  <si>
+    <t>Ariane C</t>
   </si>
   <si>
     <t>Powdery_mildew</t>
   </si>
   <si>
-    <t xml:space="preserve">3rd nitrogen application</t>
+    <t>3rd nitrogen application</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">1st application of insecticide</t>
+    <t>1st application of insecticide</t>
   </si>
   <si>
     <t>none</t>
@@ -301,58 +305,49 @@
     <t>Leaf_rust</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>Kieserit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd application of insecticide</t>
+    <t>2nd application of insecticide</t>
   </si>
   <si>
     <t>Septoria</t>
   </si>
   <si>
-    <t xml:space="preserve">5 kg Bittersalz, 1.0l Manganchelat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st application of fungicide</t>
+    <t>1st application of fungicide</t>
   </si>
   <si>
     <t>DTR</t>
   </si>
   <si>
-    <t xml:space="preserve">2nd application of fungicide</t>
+    <t>2nd application of fungicide</t>
   </si>
   <si>
     <t>Fusarium</t>
   </si>
   <si>
-    <t xml:space="preserve">3rd application of fungicide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st application of growth regulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd application of growth regulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high nitrogen, no fungicide (HN_NF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0l CCC + 0.2l Calma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2l Moddus + 0.2l Camposan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high nitrogen, with fungicide (HN_WF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0 l Ampera + 0.2 l Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8 l</t>
+    <t>3rd application of fungicide</t>
+  </si>
+  <si>
+    <t>1st application of growth regulator</t>
+  </si>
+  <si>
+    <t>2nd application of growth regulator</t>
+  </si>
+  <si>
+    <t>high nitrogen, no fungicide (HN_NF)</t>
+  </si>
+  <si>
+    <t>1.0l CCC + 0.2l Calma</t>
+  </si>
+  <si>
+    <t>0.2l Moddus + 0.2l Camposan</t>
+  </si>
+  <si>
+    <t>high nitrogen, with fungicide (HN_WF)</t>
+  </si>
+  <si>
+    <t>1.0 l Ampera + 0.2 l Vegas</t>
+  </si>
+  <si>
+    <t>0.8 l</t>
   </si>
   <si>
     <t>Adexar</t>
@@ -362,51 +357,66 @@
   </si>
   <si>
     <t>Osiris</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <b/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="0"/>
-      <sz val="14"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <b/>
-      <color rgb="FF3F3F76"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -415,7 +425,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -534,325 +544,49 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1"/>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="4" borderId="2" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="5" borderId="1" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="7" borderId="2" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="7" borderId="3" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="8" borderId="4" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="9" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent3" xfId="1" builtinId="38"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1057,34 +791,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="H68" activeCellId="0" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.140625"/>
-    <col customWidth="1" min="2" max="2" width="38.7109375"/>
-    <col customWidth="1" min="3" max="3" width="25.140625"/>
-    <col customWidth="1" min="6" max="6" width="33.85546875"/>
-    <col customWidth="1" min="7" max="7" width="20.7109375"/>
-    <col customWidth="1" min="10" max="10" width="20.85546875"/>
-    <col customWidth="1" min="11" max="11" width="36.5703125"/>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="34.5" customHeight="1" r="1">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1092,7 +828,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1140,13 +876,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1154,13 +890,13 @@
         <v>16</v>
       </c>
     </row>
-    <row ht="45.75" customHeight="1" r="12">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1168,7 +904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1176,7 +912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1184,7 +920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1192,7 +928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1200,7 +936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1208,7 +944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1216,21 +952,21 @@
         <v>30</v>
       </c>
     </row>
-    <row ht="53.25" customHeight="1" r="21">
+    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1239,7 +975,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1248,7 +984,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1257,7 +993,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1002,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -1275,7 +1011,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -1284,14 +1020,14 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -1300,7 +1036,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
@@ -1309,36 +1045,36 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="6">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="6">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="2">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="C34" s="7">
         <v>41518</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -1347,7 +1083,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
@@ -1358,7 +1094,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>56</v>
       </c>
@@ -1369,14 +1105,14 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -1387,7 +1123,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -1398,7 +1134,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
@@ -1409,7 +1145,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -1420,7 +1156,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -1429,7 +1165,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row ht="46.5" customHeight="1" r="45">
+    <row r="45" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -1444,7 +1180,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row ht="24" customHeight="1" r="46">
+    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>69</v>
       </c>
@@ -1479,8 +1215,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -1493,31 +1229,31 @@
         <v>40</v>
       </c>
       <c r="E47" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="G47" s="13">
         <v>41942</v>
       </c>
       <c r="H47" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="C48" s="11">
         <v>42115</v>
@@ -1526,106 +1262,94 @@
         <v>10</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48" s="13">
         <v>42159</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="J48" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="11">
-        <v>42075</v>
-      </c>
-      <c r="D50" s="10">
-        <v>150</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G50" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K50" s="14"/>
     </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="11">
-        <v>42122</v>
-      </c>
+      <c r="C51" s="11"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="E51" s="10"/>
       <c r="F51" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K51" s="14"/>
     </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>78</v>
       </c>
       <c r="B52" s="10"/>
@@ -1633,20 +1357,20 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K52" s="14"/>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>78</v>
       </c>
       <c r="B53" s="10"/>
@@ -1654,18 +1378,18 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>78</v>
       </c>
       <c r="B54" s="10"/>
@@ -1673,18 +1397,18 @@
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>78</v>
       </c>
       <c r="B55" s="10"/>
@@ -1692,17 +1416,17 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
     </row>
-    <row ht="36" customHeight="1" r="57">
+    <row r="57" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>69</v>
       </c>
@@ -1737,9 +1461,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
-        <v>107</v>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>103</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>79</v>
@@ -1751,31 +1475,31 @@
         <v>50</v>
       </c>
       <c r="E58" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="G58" s="13">
         <v>41942</v>
       </c>
       <c r="H58" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="C59" s="11">
         <v>42115</v>
@@ -1784,31 +1508,31 @@
         <v>60</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G59" s="13">
         <v>42159</v>
       </c>
       <c r="H59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="J59" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="K59" s="14"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="C60" s="11">
         <v>42163</v>
@@ -1817,158 +1541,146 @@
         <v>60</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F60" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K60" s="14"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="11">
-        <v>42075</v>
-      </c>
-      <c r="D61" s="10">
-        <v>150</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G61" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K61" s="14"/>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
-        <v>107</v>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>103</v>
       </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="11">
-        <v>42122</v>
-      </c>
+      <c r="C62" s="11"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="E62" s="10"/>
       <c r="F62" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K62" s="14"/>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
-        <v>107</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>103</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>103</v>
-      </c>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
-        <v>107</v>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>103</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G65" s="13">
         <v>42122</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
     </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
-        <v>107</v>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>103</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G66" s="13">
         <v>42146</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
     </row>
-    <row ht="37.5" customHeight="1" r="68">
+    <row r="68" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>69</v>
       </c>
@@ -2003,9 +1715,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
-        <v>110</v>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>106</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>79</v>
@@ -2017,31 +1729,31 @@
         <v>50</v>
       </c>
       <c r="E69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="G69" s="13">
         <v>41942</v>
       </c>
       <c r="H69" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="J69" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="K69" s="14"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="C70" s="11">
         <v>42115</v>
@@ -2050,31 +1762,31 @@
         <v>60</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G70" s="13">
         <v>42159</v>
       </c>
       <c r="H70" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="J70" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="K70" s="14"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="C71" s="11">
         <v>42163</v>
@@ -2083,185 +1795,174 @@
         <v>60</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F71" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K71" s="14"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="11">
-        <v>42075</v>
-      </c>
-      <c r="D72" s="10">
-        <v>150</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G72" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K72" s="14"/>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
-        <v>110</v>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>106</v>
       </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="11">
-        <v>42122</v>
-      </c>
+      <c r="C73" s="11"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="E73" s="10"/>
       <c r="F73" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G73" s="13">
         <v>42122</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K73" s="14"/>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
-        <v>110</v>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>106</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G74" s="13">
         <v>42146</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K74" s="14"/>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
-        <v>110</v>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>106</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G75" s="13">
         <v>42174</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
-        <v>110</v>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>106</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G76" s="13">
         <v>42122</v>
       </c>
-      <c r="H76" s="15" t="s">
-        <v>108</v>
+      <c r="H76" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
-        <v>110</v>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>106</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G77" s="13">
         <v>42146</v>
       </c>
-      <c r="H77" s="15" t="s">
-        <v>109</v>
+      <c r="H77" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="I77" s="12"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157500000008" bottom="0.78740157500000008" header="0.5" footer="0.5"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157500000008" bottom="0.78740157500000008" header="0.5" footer="0.5"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/management/Management_information_KIE_2015.xlsx
+++ b/data/management/Management_information_KIE_2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108E2D6E-64AD-2343-B3A6-1943F8288364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3A347-0266-7E49-B3F7-303A6A9D6716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="34840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>Pre-Preceding crop</t>
   </si>
   <si>
-    <t>winterbarley</t>
-  </si>
-  <si>
     <t>Soil cultivation before preceding crop</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>winter barley</t>
   </si>
 </sst>
 </file>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1016,29 +1016,29 @@
         <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="6">
         <v>0.25</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="6">
         <v>0.45</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="6">
         <v>0.3</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2">
         <v>6.6</v>
@@ -1076,19 +1076,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C36" s="7">
         <v>41518</v>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C37" s="7">
         <v>41518</v>
@@ -1107,17 +1107,17 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C39" s="7">
         <v>42052</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7">
         <v>42052</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C41" s="7">
         <v>42052</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C42" s="7">
         <v>42052</v>
@@ -1158,16 +1158,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1182,45 +1182,45 @@
     </row>
     <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="G46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="9" t="s">
+      <c r="I46" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="9" t="s">
+      <c r="K46" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="C47" s="11">
         <v>42075</v>
@@ -1229,31 +1229,31 @@
         <v>40</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="13">
         <v>41942</v>
       </c>
       <c r="H47" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="11">
         <v>42115</v>
@@ -1262,126 +1262,126 @@
         <v>10</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" s="13">
         <v>42159</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="J48" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -1390,17 +1390,17 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -1409,17 +1409,17 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -1428,45 +1428,45 @@
     </row>
     <row r="57" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="E57" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="G57" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="I57" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J57" s="9" t="s">
+      <c r="K57" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="11">
         <v>42075</v>
@@ -1475,31 +1475,31 @@
         <v>50</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G58" s="13">
         <v>41942</v>
       </c>
       <c r="H58" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I58" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="11">
         <v>42115</v>
@@ -1508,31 +1508,31 @@
         <v>60</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G59" s="13">
         <v>42159</v>
       </c>
       <c r="H59" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="J59" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="11">
         <v>42163</v>
@@ -1541,97 +1541,97 @@
         <v>60</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K60" s="14"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -1640,20 +1640,20 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G65" s="13">
         <v>42122</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="14"/>
@@ -1661,20 +1661,20 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G66" s="13">
         <v>42146</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="14"/>
@@ -1682,45 +1682,45 @@
     </row>
     <row r="68" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="G68" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H68" s="9" t="s">
+      <c r="I68" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J68" s="9" t="s">
+      <c r="K68" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="11">
         <v>42075</v>
@@ -1729,31 +1729,31 @@
         <v>50</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" s="13">
         <v>41942</v>
       </c>
       <c r="H69" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I69" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="J69" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="11">
         <v>42115</v>
@@ -1762,31 +1762,31 @@
         <v>60</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G70" s="13">
         <v>42159</v>
       </c>
       <c r="H70" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="J70" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="K70" s="14"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="11">
         <v>42163</v>
@@ -1795,129 +1795,129 @@
         <v>60</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F71" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K71" s="14"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K72" s="14"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G73" s="13">
         <v>42122</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K73" s="14"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G74" s="13">
         <v>42146</v>
       </c>
       <c r="H74" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I74" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="J74" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K74" s="14"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G75" s="13">
         <v>42174</v>
       </c>
       <c r="H75" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G76" s="13">
         <v>42122</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="14"/>
@@ -1925,20 +1925,20 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G77" s="13">
         <v>42146</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I77" s="12"/>
       <c r="J77" s="14"/>
